--- a/chapters/ch08-Transportation/datasets/Biofuels.xlsx
+++ b/chapters/ch08-Transportation/datasets/Biofuels.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College\Book research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/MCBook2021/chapters/ch08-Transportation/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27F3CFD-F11C-4A47-A4E1-285FB2C09120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F4671-6052-F046-AED2-58C7C9F393DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{491BF1BD-BFA8-48F2-97C3-B0F0049B16FA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27460" windowHeight="23060" xr2:uid="{491BF1BD-BFA8-48F2-97C3-B0F0049B16FA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Calcs" sheetId="3" r:id="rId1"/>
+    <sheet name="data to plot" sheetId="3" r:id="rId1"/>
     <sheet name="Biodiesel" sheetId="2" r:id="rId2"/>
     <sheet name="Fuel Ethanol" sheetId="1" r:id="rId3"/>
   </sheets>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -140,7 +138,7 @@
     <t>Biodiesel Consumption (Million Gallons)</t>
   </si>
   <si>
-    <t>Biofuel Consumption (Million Gallons)</t>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -560,727 +558,566 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3B5375-F571-4FF8-B2D1-B0301236A754}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="10"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="10"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <f>'Fuel Ethanol'!A14</f>
         <v>1981</v>
       </c>
       <c r="B2">
-        <f>SUM(C2:D2)</f>
-        <v>83.073999999999998</v>
-      </c>
-      <c r="C2">
         <f>'Fuel Ethanol'!L14</f>
         <v>83.073999999999998</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <f>'Fuel Ethanol'!A15</f>
         <v>1982</v>
       </c>
       <c r="B3">
-        <f>SUM(C3:D3)</f>
-        <v>225.48699999999999</v>
-      </c>
-      <c r="C3">
         <f>'Fuel Ethanol'!L15</f>
         <v>225.48699999999999</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <f>'Fuel Ethanol'!A16</f>
         <v>1983</v>
       </c>
       <c r="B4">
-        <f>SUM(C4:D4)</f>
-        <v>415.37200000000001</v>
-      </c>
-      <c r="C4">
         <f>'Fuel Ethanol'!L16</f>
         <v>415.37200000000001</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <f>'Fuel Ethanol'!A17</f>
         <v>1984</v>
       </c>
       <c r="B5">
-        <f>SUM(C5:D5)</f>
-        <v>510.31400000000002</v>
-      </c>
-      <c r="C5">
         <f>'Fuel Ethanol'!L17</f>
         <v>510.31400000000002</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <f>'Fuel Ethanol'!A18</f>
         <v>1985</v>
       </c>
       <c r="B6">
-        <f>SUM(C6:D6)</f>
-        <v>617.12300000000005</v>
-      </c>
-      <c r="C6">
         <f>'Fuel Ethanol'!L18</f>
         <v>617.12300000000005</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <f>'Fuel Ethanol'!A19</f>
         <v>1986</v>
       </c>
       <c r="B7">
-        <f>SUM(C7:D7)</f>
-        <v>712.06600000000003</v>
-      </c>
-      <c r="C7">
         <f>'Fuel Ethanol'!L19</f>
         <v>712.06600000000003</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <f>'Fuel Ethanol'!A20</f>
         <v>1987</v>
       </c>
       <c r="B8">
-        <f>SUM(C8:D8)</f>
-        <v>818.875</v>
-      </c>
-      <c r="C8">
         <f>'Fuel Ethanol'!L20</f>
         <v>818.875</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <f>'Fuel Ethanol'!A21</f>
         <v>1988</v>
       </c>
       <c r="B9">
-        <f>SUM(C9:D9)</f>
-        <v>830.74300000000005</v>
-      </c>
-      <c r="C9">
         <f>'Fuel Ethanol'!L21</f>
         <v>830.74300000000005</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <f>'Fuel Ethanol'!A22</f>
         <v>1989</v>
       </c>
       <c r="B10">
-        <f>SUM(C10:D10)</f>
-        <v>842.61099999999999</v>
-      </c>
-      <c r="C10">
         <f>'Fuel Ethanol'!L22</f>
         <v>842.61099999999999</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <f>'Fuel Ethanol'!A23</f>
         <v>1990</v>
       </c>
       <c r="B11">
-        <f>SUM(C11:D11)</f>
-        <v>747.66899999999998</v>
-      </c>
-      <c r="C11">
         <f>'Fuel Ethanol'!L23</f>
         <v>747.66899999999998</v>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <f>'Fuel Ethanol'!A24</f>
         <v>1991</v>
       </c>
       <c r="B12">
-        <f>SUM(C12:D12)</f>
-        <v>866.346</v>
-      </c>
-      <c r="C12">
         <f>'Fuel Ethanol'!L24</f>
         <v>866.346</v>
       </c>
-      <c r="D12">
+      <c r="C12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <f>'Fuel Ethanol'!A25</f>
         <v>1992</v>
       </c>
       <c r="B13">
-        <f>SUM(C13:D13)</f>
-        <v>985.024</v>
-      </c>
-      <c r="C13">
         <f>'Fuel Ethanol'!L25</f>
         <v>985.024</v>
       </c>
-      <c r="D13">
+      <c r="C13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <f>'Fuel Ethanol'!A26</f>
         <v>1993</v>
       </c>
       <c r="B14">
-        <f>SUM(C14:D14)</f>
-        <v>1151.01</v>
-      </c>
-      <c r="C14">
         <f>'Fuel Ethanol'!L26</f>
         <v>1151.01</v>
       </c>
-      <c r="D14">
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <f>'Fuel Ethanol'!A27</f>
         <v>1994</v>
       </c>
       <c r="B15">
-        <f>SUM(C15:D15)</f>
-        <v>1288.9380000000001</v>
-      </c>
-      <c r="C15">
         <f>'Fuel Ethanol'!L27</f>
         <v>1288.9380000000001</v>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <f>'Fuel Ethanol'!A28</f>
         <v>1995</v>
       </c>
       <c r="B16">
-        <f>SUM(C16:D16)</f>
-        <v>1382.598</v>
-      </c>
-      <c r="C16">
         <f>'Fuel Ethanol'!L28</f>
         <v>1382.598</v>
       </c>
-      <c r="D16">
+      <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <f>'Fuel Ethanol'!A29</f>
         <v>1996</v>
       </c>
       <c r="B17">
-        <f>SUM(C17:D17)</f>
-        <v>991.70399999999995</v>
-      </c>
-      <c r="C17">
         <f>'Fuel Ethanol'!L29</f>
         <v>991.70399999999995</v>
       </c>
-      <c r="D17">
+      <c r="C17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <f>'Fuel Ethanol'!A30</f>
         <v>1997</v>
       </c>
       <c r="B18">
-        <f>SUM(C18:D18)</f>
-        <v>1255.758</v>
-      </c>
-      <c r="C18">
         <f>'Fuel Ethanol'!L30</f>
         <v>1255.758</v>
       </c>
-      <c r="D18">
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <f>'Fuel Ethanol'!A31</f>
         <v>1998</v>
       </c>
       <c r="B19">
-        <f>SUM(C19:D19)</f>
-        <v>1387.596</v>
-      </c>
-      <c r="C19">
         <f>'Fuel Ethanol'!L31</f>
         <v>1387.596</v>
       </c>
-      <c r="D19">
+      <c r="C19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <f>'Fuel Ethanol'!A32</f>
         <v>1999</v>
       </c>
       <c r="B20">
-        <f>SUM(C20:D20)</f>
-        <v>1442.7</v>
-      </c>
-      <c r="C20">
         <f>'Fuel Ethanol'!L32</f>
         <v>1442.7</v>
       </c>
-      <c r="D20">
+      <c r="C20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <f>'Fuel Ethanol'!A33</f>
         <v>2000</v>
       </c>
       <c r="B21">
-        <f>SUM(C21:D21)</f>
-        <v>1653.414</v>
-      </c>
-      <c r="C21">
         <f>'Fuel Ethanol'!L33</f>
         <v>1653.414</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <f>'Fuel Ethanol'!A34</f>
         <v>2001</v>
       </c>
       <c r="B22">
-        <f>SUM(C22:D22)</f>
-        <v>1750.9580000000001</v>
-      </c>
-      <c r="C22">
         <f>'Fuel Ethanol'!L34</f>
         <v>1740.69</v>
       </c>
-      <c r="D22">
+      <c r="C22">
         <f>Biodiesel!M14</f>
         <v>10.268000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <f>'Fuel Ethanol'!A35</f>
         <v>2002</v>
       </c>
       <c r="B23">
-        <f>SUM(C23:D23)</f>
-        <v>2089.4809999999998</v>
-      </c>
-      <c r="C23">
         <f>'Fuel Ethanol'!L35</f>
         <v>2073.12</v>
       </c>
-      <c r="D23">
+      <c r="C23">
         <f>Biodiesel!M15</f>
         <v>16.361000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <f>'Fuel Ethanol'!A36</f>
         <v>2003</v>
       </c>
       <c r="B24">
-        <f>SUM(C24:D24)</f>
-        <v>2839.5220000000004</v>
-      </c>
-      <c r="C24">
         <f>'Fuel Ethanol'!L36</f>
         <v>2826.0120000000002</v>
       </c>
-      <c r="D24">
+      <c r="C24">
         <f>Biodiesel!M16</f>
         <v>13.51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <f>'Fuel Ethanol'!A37</f>
         <v>2004</v>
       </c>
       <c r="B25">
-        <f>SUM(C25:D25)</f>
-        <v>3579.0329999999999</v>
-      </c>
-      <c r="C25">
         <f>'Fuel Ethanol'!L37</f>
         <v>3552.192</v>
       </c>
-      <c r="D25">
+      <c r="C25">
         <f>Biodiesel!M17</f>
         <v>26.841000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <f>'Fuel Ethanol'!A38</f>
         <v>2005</v>
       </c>
       <c r="B26">
-        <f>SUM(C26:D26)</f>
-        <v>4149.4560000000001</v>
-      </c>
-      <c r="C26">
         <f>'Fuel Ethanol'!L38</f>
         <v>4058.6280000000002</v>
       </c>
-      <c r="D26">
+      <c r="C26">
         <f>Biodiesel!M18</f>
         <v>90.828000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <f>'Fuel Ethanol'!A39</f>
         <v>2006</v>
       </c>
       <c r="B27">
-        <f>SUM(C27:D27)</f>
-        <v>5742.1360000000004</v>
-      </c>
-      <c r="C27">
         <f>'Fuel Ethanol'!L39</f>
         <v>5481.21</v>
       </c>
-      <c r="D27">
+      <c r="C27">
         <f>Biodiesel!M19</f>
         <v>260.92599999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <f>'Fuel Ethanol'!A40</f>
         <v>2007</v>
       </c>
       <c r="B28">
-        <f>SUM(C28:D28)</f>
-        <v>7239.3979999999992</v>
-      </c>
-      <c r="C28">
         <f>'Fuel Ethanol'!L40</f>
         <v>6885.69</v>
       </c>
-      <c r="D28">
+      <c r="C28">
         <f>Biodiesel!M20</f>
         <v>353.70800000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <f>'Fuel Ethanol'!A41</f>
         <v>2008</v>
       </c>
       <c r="B29">
-        <f>SUM(C29:D29)</f>
-        <v>9986.9080000000013</v>
-      </c>
-      <c r="C29">
         <f>'Fuel Ethanol'!L41</f>
         <v>9683.3520000000008</v>
       </c>
-      <c r="D29">
+      <c r="C29">
         <f>Biodiesel!M21</f>
         <v>303.55599999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <f>'Fuel Ethanol'!A42</f>
         <v>2009</v>
       </c>
       <c r="B30">
-        <f>SUM(C30:D30)</f>
-        <v>11358.424000000001</v>
-      </c>
-      <c r="C30">
         <f>'Fuel Ethanol'!L42</f>
         <v>11036.592000000001</v>
       </c>
-      <c r="D30">
+      <c r="C30">
         <f>Biodiesel!M22</f>
         <v>321.83199999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <f>'Fuel Ethanol'!A43</f>
         <v>2010</v>
       </c>
       <c r="B31">
-        <f>SUM(C31:D31)</f>
-        <v>13118.572</v>
-      </c>
-      <c r="C31">
         <f>'Fuel Ethanol'!L43</f>
         <v>12858.496999999999</v>
       </c>
-      <c r="D31">
+      <c r="C31">
         <f>Biodiesel!M23</f>
         <v>260.07499999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <f>'Fuel Ethanol'!A44</f>
         <v>2011</v>
       </c>
       <c r="B32">
-        <f>SUM(C32:D32)</f>
-        <v>13779.484</v>
-      </c>
-      <c r="C32">
         <f>'Fuel Ethanol'!L44</f>
         <v>12893.313</v>
       </c>
-      <c r="D32">
+      <c r="C32">
         <f>Biodiesel!M24</f>
         <v>886.17100000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <f>'Fuel Ethanol'!A45</f>
         <v>2012</v>
       </c>
       <c r="B33">
-        <f>SUM(C33:D33)</f>
-        <v>13780.925000000001</v>
-      </c>
-      <c r="C33">
         <f>'Fuel Ethanol'!L45</f>
         <v>12881.879000000001</v>
       </c>
-      <c r="D33">
+      <c r="C33">
         <f>Biodiesel!M25</f>
         <v>899.04600000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <f>'Fuel Ethanol'!A46</f>
         <v>2013</v>
       </c>
       <c r="B34">
-        <f>SUM(C34:D34)</f>
-        <v>14644.459000000001</v>
-      </c>
-      <c r="C34">
         <f>'Fuel Ethanol'!L46</f>
         <v>13215.619000000001</v>
       </c>
-      <c r="D34">
+      <c r="C34">
         <f>Biodiesel!M26</f>
         <v>1428.84</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <f>'Fuel Ethanol'!A47</f>
         <v>2014</v>
       </c>
       <c r="B35">
-        <f>SUM(C35:D35)</f>
-        <v>14860.833000000001</v>
-      </c>
-      <c r="C35">
         <f>'Fuel Ethanol'!L47</f>
         <v>13443.976000000001</v>
       </c>
-      <c r="D35">
+      <c r="C35">
         <f>Biodiesel!M27</f>
         <v>1416.857</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <f>'Fuel Ethanol'!A48</f>
         <v>2015</v>
       </c>
       <c r="B36">
-        <f>SUM(C36:D36)</f>
-        <v>15440.847</v>
-      </c>
-      <c r="C36">
         <f>'Fuel Ethanol'!L48</f>
         <v>13946.686</v>
       </c>
-      <c r="D36">
+      <c r="C36">
         <f>Biodiesel!M28</f>
         <v>1494.1610000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <f>'Fuel Ethanol'!A49</f>
         <v>2016</v>
       </c>
       <c r="B37">
-        <f>SUM(C37:D37)</f>
-        <v>16441.764999999999</v>
-      </c>
-      <c r="C37">
         <f>'Fuel Ethanol'!L49</f>
         <v>14356.328</v>
       </c>
-      <c r="D37">
+      <c r="C37">
         <f>Biodiesel!M29</f>
         <v>2085.4369999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <f>'Fuel Ethanol'!A50</f>
         <v>2017</v>
       </c>
       <c r="B38">
-        <f>SUM(C38:D38)</f>
-        <v>16470.344000000001</v>
-      </c>
-      <c r="C38">
         <f>'Fuel Ethanol'!L50</f>
         <v>14485.062</v>
       </c>
-      <c r="D38">
+      <c r="C38">
         <f>Biodiesel!M30</f>
         <v>1985.2819999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <f>'Fuel Ethanol'!A51</f>
         <v>2018</v>
       </c>
       <c r="B39">
-        <f>SUM(C39:D39)</f>
-        <v>16324.06</v>
-      </c>
-      <c r="C39">
         <f>'Fuel Ethanol'!L51</f>
         <v>14420.355</v>
       </c>
-      <c r="D39">
+      <c r="C39">
         <f>Biodiesel!M31</f>
         <v>1903.7049999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <f>'Fuel Ethanol'!A52</f>
         <v>2019</v>
       </c>
       <c r="B40">
-        <f>SUM(C40:D40)</f>
-        <v>16364.512000000001</v>
-      </c>
-      <c r="C40">
         <f>'Fuel Ethanol'!L52</f>
         <v>14551.669</v>
       </c>
-      <c r="D40">
+      <c r="C40">
         <f>Biodiesel!M32</f>
         <v>1812.8430000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <f>'Fuel Ethanol'!A53</f>
         <v>2020</v>
       </c>
       <c r="B41">
-        <f>SUM(C41:D41)</f>
-        <v>14557.185000000001</v>
-      </c>
-      <c r="C41">
         <f>'Fuel Ethanol'!L53</f>
         <v>12680.842000000001</v>
       </c>
-      <c r="D41">
+      <c r="C41">
         <f>Biodiesel!M33</f>
         <v>1876.3430000000001</v>
       </c>
@@ -1294,61 +1131,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89612DA5-EA6B-4068-AC27-AC6B5FC681BA}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView topLeftCell="F29" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f>HYPERLINK("http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm","Note: Information about data precision.")</f>
         <v>Note: Information about data precision.</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1395,7 +1230,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
@@ -1440,7 +1275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>2001</v>
       </c>
@@ -1487,7 +1322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>2002</v>
       </c>
@@ -1534,7 +1369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>2003</v>
       </c>
@@ -1581,7 +1416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>2004</v>
       </c>
@@ -1628,7 +1463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>2005</v>
       </c>
@@ -1675,7 +1510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>2006</v>
       </c>
@@ -1722,7 +1557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>2007</v>
       </c>
@@ -1769,7 +1604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>2008</v>
       </c>
@@ -1816,7 +1651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2009</v>
       </c>
@@ -1863,7 +1698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>2010</v>
       </c>
@@ -1910,7 +1745,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>2011</v>
       </c>
@@ -1957,7 +1792,7 @@
         <v>0.51600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>2012</v>
       </c>
@@ -2004,7 +1839,7 @@
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>2013</v>
       </c>
@@ -2051,7 +1886,7 @@
         <v>30.238</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>2014</v>
       </c>
@@ -2098,7 +1933,7 @@
         <v>28.067</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>2015</v>
       </c>
@@ -2145,7 +1980,7 @@
         <v>33.473999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>2016</v>
       </c>
@@ -2192,7 +2027,7 @@
         <v>33.552</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>2017</v>
       </c>
@@ -2239,7 +2074,7 @@
         <v>29.648</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>2018</v>
       </c>
@@ -2286,7 +2121,7 @@
         <v>19.417000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>2019</v>
       </c>
@@ -2333,7 +2168,7 @@
         <v>17.635000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2020</v>
       </c>
@@ -2394,60 +2229,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1127A587-FF1C-4E44-9287-52FB49032EAB}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="G45" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="25.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f>HYPERLINK("http://www.eia.gov/totalenergy/data/monthly/dataunits.cfm","Note: Information about data precision.")</f>
         <v>Note: Information about data precision.</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +2326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
@@ -2533,7 +2368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>1981</v>
       </c>
@@ -2577,7 +2412,7 @@
         <v>6.86</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>1982</v>
       </c>
@@ -2621,7 +2456,7 @@
         <v>18.62</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>1983</v>
       </c>
@@ -2665,7 +2500,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>1984</v>
       </c>
@@ -2709,7 +2544,7 @@
         <v>42.14</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>1985</v>
       </c>
@@ -2753,7 +2588,7 @@
         <v>50.96</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>1986</v>
       </c>
@@ -2797,7 +2632,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>1987</v>
       </c>
@@ -2841,7 +2676,7 @@
         <v>67.62</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>1988</v>
       </c>
@@ -2885,7 +2720,7 @@
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>1989</v>
       </c>
@@ -2929,7 +2764,7 @@
         <v>69.58</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>1990</v>
       </c>
@@ -2973,7 +2808,7 @@
         <v>61.74</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>1991</v>
       </c>
@@ -3017,7 +2852,7 @@
         <v>71.540000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>1992</v>
       </c>
@@ -3061,7 +2896,7 @@
         <v>81.34</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>1993</v>
       </c>
@@ -3105,7 +2940,7 @@
         <v>95.046999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>1994</v>
       </c>
@@ -3149,7 +2984,7 @@
         <v>106.43600000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>1995</v>
       </c>
@@ -3193,7 +3028,7 @@
         <v>114.17</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>1996</v>
       </c>
@@ -3237,7 +3072,7 @@
         <v>81.891999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>1997</v>
       </c>
@@ -3281,7 +3116,7 @@
         <v>103.696</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>1998</v>
       </c>
@@ -3325,7 +3160,7 @@
         <v>114.583</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>1999</v>
       </c>
@@ -3369,7 +3204,7 @@
         <v>119.133</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2000</v>
       </c>
@@ -3413,7 +3248,7 @@
         <v>136.53299999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>2001</v>
       </c>
@@ -3457,7 +3292,7 @@
         <v>143.74</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>2002</v>
       </c>
@@ -3501,7 +3336,7 @@
         <v>171.191</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>2003</v>
       </c>
@@ -3545,7 +3380,7 @@
         <v>233.363</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>2004</v>
       </c>
@@ -3589,7 +3424,7 @@
         <v>293.32799999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
         <v>2005</v>
       </c>
@@ -3633,7 +3468,7 @@
         <v>335.14800000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2006</v>
       </c>
@@ -3677,7 +3512,7 @@
         <v>452.62</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2007</v>
       </c>
@@ -3721,7 +3556,7 @@
         <v>568.59699999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2008</v>
       </c>
@@ -3765,7 +3600,7 @@
         <v>799.61900000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>2009</v>
       </c>
@@ -3809,7 +3644,7 @@
         <v>909.65300000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2010</v>
       </c>
@@ -3853,7 +3688,7 @@
         <v>1061.2180000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2011</v>
       </c>
@@ -3897,7 +3732,7 @@
         <v>1064.634</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2012</v>
       </c>
@@ -3941,7 +3776,7 @@
         <v>1063.847</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2013</v>
       </c>
@@ -3985,7 +3820,7 @@
         <v>1091.826</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2014</v>
       </c>
@@ -4029,7 +3864,7 @@
         <v>1111.288</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2015</v>
       </c>
@@ -4073,7 +3908,7 @@
         <v>1153.0540000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2016</v>
       </c>
@@ -4117,7 +3952,7 @@
         <v>1186.8810000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2017</v>
       </c>
@@ -4161,7 +3996,7 @@
         <v>1199.125</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2018</v>
       </c>
@@ -4205,7 +4040,7 @@
         <v>1196.6320000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2019</v>
       </c>
@@ -4249,7 +4084,7 @@
         <v>1206.278</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2020</v>
       </c>
